--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_DLTuyenHang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_DLTuyenHang.xlsx
@@ -625,6 +625,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -642,30 +666,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -977,7 +977,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1009,43 +1009,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1090,58 +1090,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -1166,23 +1166,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1192,7 +1192,9 @@
       <c r="B6" s="61">
         <v>44687</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44700</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>45</v>
       </c>
@@ -1220,7 +1222,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1251,7 +1253,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1280,7 +1282,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1309,7 +1311,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1338,7 +1340,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1367,7 +1369,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1396,7 +1398,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="64" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1427,7 +1429,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1456,7 +1458,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1485,7 +1487,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1514,7 +1516,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2744,13 +2746,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2762,6 +2757,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2805,43 +2807,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -2886,58 +2888,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -2962,23 +2964,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="64"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="72"/>
       <c r="P5" s="78"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="77"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3004,7 +3006,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3035,7 +3037,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3064,7 +3066,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3093,7 +3095,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3122,7 +3124,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3151,7 +3153,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3180,7 +3182,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="64" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3211,7 +3213,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3240,7 +3242,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3269,7 +3271,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3298,7 +3300,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4529,13 +4531,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4547,6 +4542,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_DLTuyenHang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_DLTuyenHang.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="70">
   <si>
     <t>STT</t>
   </si>
@@ -228,7 +228,19 @@
     <t>Dây nguồn</t>
   </si>
   <si>
-    <t>Thiết bị lỗi nguồn</t>
+    <t>ID mới : 860906041118883</t>
+  </si>
+  <si>
+    <t>Đổi mới</t>
+  </si>
+  <si>
+    <t>ĐM</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn, main lỗi</t>
   </si>
 </sst>
 </file>
@@ -625,6 +637,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -640,32 +676,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -977,7 +989,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1009,43 +1021,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1090,58 +1102,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -1166,23 +1178,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1193,7 +1205,7 @@
         <v>44687</v>
       </c>
       <c r="C6" s="61">
-        <v>44700</v>
+        <v>44705</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>45</v>
@@ -1207,22 +1219,34 @@
       <c r="G6" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="48"/>
+      <c r="H6" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="I6" s="53"/>
       <c r="J6" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>66</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="64" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1253,7 +1277,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="65"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1282,7 +1306,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="65"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1311,7 +1335,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="65"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1340,7 +1364,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="65"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1369,7 +1393,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="65"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1398,7 +1422,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="64" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1429,7 +1453,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="65"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1458,7 +1482,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="65"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1487,7 +1511,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="65"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1516,7 +1540,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="66"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1666,7 +1690,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -1911,7 +1935,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -2167,7 +2191,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2746,6 +2770,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2757,13 +2788,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2807,43 +2831,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -2888,58 +2912,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -2964,23 +2988,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="72"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="64"/>
       <c r="P5" s="78"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="71"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3006,7 +3030,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="64" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3037,7 +3061,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="65"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3066,7 +3090,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="65"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3095,7 +3119,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="65"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3124,7 +3148,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="65"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3153,7 +3177,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="65"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3182,7 +3206,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="64" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3213,7 +3237,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="65"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3242,7 +3266,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="65"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3271,7 +3295,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="65"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3300,7 +3324,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="66"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4531,6 +4555,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4542,13 +4573,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
